--- a/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.95030914646096</v>
+        <v>14.11271701734132</v>
       </c>
       <c r="C2">
-        <v>16.37144718501444</v>
+        <v>8.115539399835351</v>
       </c>
       <c r="D2">
-        <v>2.933955570781681</v>
+        <v>4.452256684044865</v>
       </c>
       <c r="E2">
-        <v>30.10827348946221</v>
+        <v>29.55600248574026</v>
       </c>
       <c r="F2">
-        <v>30.4035928704043</v>
+        <v>18.98321601778879</v>
       </c>
       <c r="G2">
-        <v>2.0433641387512</v>
+        <v>2.076821944399847</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.30945802172924</v>
+        <v>12.59933317724417</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.24504525856459</v>
+        <v>11.57856048600477</v>
       </c>
       <c r="O2">
-        <v>23.32484969365547</v>
+        <v>15.01327909580958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.30845419395333</v>
+        <v>13.17936697744922</v>
       </c>
       <c r="C3">
-        <v>15.22913649007626</v>
+        <v>7.710858246126792</v>
       </c>
       <c r="D3">
-        <v>3.052282937262488</v>
+        <v>4.327766994263931</v>
       </c>
       <c r="E3">
-        <v>27.84235113819021</v>
+        <v>27.42093871815536</v>
       </c>
       <c r="F3">
-        <v>28.79865251286719</v>
+        <v>18.48010813196974</v>
       </c>
       <c r="G3">
-        <v>2.054033343527756</v>
+        <v>2.082084711312734</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.88919622695996</v>
+        <v>11.85500410993438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.5287997284667</v>
+        <v>11.79736073422942</v>
       </c>
       <c r="O3">
-        <v>22.25792447388582</v>
+        <v>14.8575602955229</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.24973276180602</v>
+        <v>12.57363652831851</v>
       </c>
       <c r="C4">
-        <v>14.49368745126051</v>
+        <v>7.451663334611856</v>
       </c>
       <c r="D4">
-        <v>3.124840874312986</v>
+        <v>4.248815970594794</v>
       </c>
       <c r="E4">
-        <v>26.39468757231375</v>
+        <v>26.04628021809168</v>
       </c>
       <c r="F4">
-        <v>27.81125689124318</v>
+        <v>18.18401420133955</v>
       </c>
       <c r="G4">
-        <v>2.060701434419441</v>
+        <v>2.085406387908309</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.97389764436139</v>
+        <v>11.37437495380564</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.70561284743551</v>
+        <v>11.93416518404992</v>
       </c>
       <c r="O4">
-        <v>21.61135269937369</v>
+        <v>14.77629679322803</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.80533100419502</v>
+        <v>12.31854179291523</v>
       </c>
       <c r="C5">
-        <v>14.18525082342235</v>
+        <v>7.343398253388933</v>
       </c>
       <c r="D5">
-        <v>3.154431888160855</v>
+        <v>4.2160400301249</v>
       </c>
       <c r="E5">
-        <v>25.78999985473452</v>
+        <v>25.46978135697914</v>
       </c>
       <c r="F5">
-        <v>27.40868295597732</v>
+        <v>18.06665282482492</v>
       </c>
       <c r="G5">
-        <v>2.063451527925055</v>
+        <v>2.086783488470343</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.5898283380569</v>
+        <v>11.17260771301448</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.77836366582799</v>
+        <v>11.99056648997814</v>
       </c>
       <c r="O5">
-        <v>21.35015773819524</v>
+        <v>14.74667496466459</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.73074884859736</v>
+        <v>12.27568374759774</v>
       </c>
       <c r="C6">
-        <v>14.13350296506918</v>
+        <v>7.325263274540469</v>
       </c>
       <c r="D6">
-        <v>3.15934815318642</v>
+        <v>4.210562110019684</v>
       </c>
       <c r="E6">
-        <v>25.6886850640583</v>
+        <v>25.37306059987918</v>
       </c>
       <c r="F6">
-        <v>27.34183408425497</v>
+        <v>18.04736640457261</v>
       </c>
       <c r="G6">
-        <v>2.063910250921422</v>
+        <v>2.087013595678358</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.52537930648928</v>
+        <v>11.13874885249533</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.79048740327338</v>
+        <v>11.99997223445447</v>
       </c>
       <c r="O6">
-        <v>21.30692988792391</v>
+        <v>14.74196380633213</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.243792195867</v>
+        <v>12.57022970959149</v>
       </c>
       <c r="C7">
-        <v>14.48956334642389</v>
+        <v>7.450213845183484</v>
       </c>
       <c r="D7">
-        <v>3.125239796118525</v>
+        <v>4.248376342803557</v>
       </c>
       <c r="E7">
-        <v>26.38659299902341</v>
+        <v>26.03857178304348</v>
       </c>
       <c r="F7">
-        <v>27.80582799947388</v>
+        <v>18.18241797061359</v>
       </c>
       <c r="G7">
-        <v>2.060738386189588</v>
+        <v>2.085424863857146</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.96876305827783</v>
+        <v>11.37167771586616</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.706591102346</v>
+        <v>11.93492314714827</v>
       </c>
       <c r="O7">
-        <v>21.60782064024287</v>
+        <v>14.77588331350438</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.39455464119268</v>
+        <v>13.79764580119059</v>
       </c>
       <c r="C8">
-        <v>15.98454122600815</v>
+        <v>7.97825834370115</v>
       </c>
       <c r="D8">
-        <v>2.974804217469187</v>
+        <v>4.409871276600896</v>
       </c>
       <c r="E8">
-        <v>29.33831931947366</v>
+        <v>28.83287704136859</v>
       </c>
       <c r="F8">
-        <v>29.85075600503636</v>
+        <v>18.80713222497157</v>
       </c>
       <c r="G8">
-        <v>2.04702067552228</v>
+        <v>2.078618285548059</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.82860137138714</v>
+        <v>12.34760085970813</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.34237609214481</v>
+        <v>11.65351318545646</v>
       </c>
       <c r="O8">
-        <v>22.95527455611667</v>
+        <v>14.95654276045154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.22233789406839</v>
+        <v>15.94783854282011</v>
       </c>
       <c r="C9">
-        <v>18.6545701785189</v>
+        <v>8.9270166393314</v>
       </c>
       <c r="D9">
-        <v>2.676711362556707</v>
+        <v>4.705445364729964</v>
       </c>
       <c r="E9">
-        <v>34.70880036200798</v>
+        <v>33.82099721705494</v>
       </c>
       <c r="F9">
-        <v>33.83858546953119</v>
+        <v>20.13035730043946</v>
       </c>
       <c r="G9">
-        <v>2.020879925144687</v>
+        <v>2.065949339135268</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.1427411497878</v>
+        <v>14.07360801197457</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.64645138404324</v>
+        <v>11.11954304297628</v>
       </c>
       <c r="O9">
-        <v>25.66220780369919</v>
+        <v>15.42939927182361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.81534434782613</v>
+        <v>17.37460530455159</v>
       </c>
       <c r="C10">
-        <v>20.47068988590246</v>
+        <v>9.569832679272686</v>
       </c>
       <c r="D10">
-        <v>2.452269287160327</v>
+        <v>4.908322017712814</v>
       </c>
       <c r="E10">
-        <v>38.44757080311854</v>
+        <v>37.20739203055184</v>
       </c>
       <c r="F10">
-        <v>36.75538181085859</v>
+        <v>21.15785259207582</v>
       </c>
       <c r="G10">
-        <v>2.00186420702879</v>
+        <v>2.056998022968577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.39078105318939</v>
+        <v>15.22765523618833</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.14316817914261</v>
+        <v>10.73563552091995</v>
       </c>
       <c r="O10">
-        <v>27.69226975834641</v>
+        <v>15.8550965771559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.95215519799507</v>
+        <v>17.99132965692983</v>
       </c>
       <c r="C11">
-        <v>21.26901772363913</v>
+        <v>9.850427571917656</v>
       </c>
       <c r="D11">
-        <v>2.348127141485966</v>
+        <v>4.997258917146259</v>
       </c>
       <c r="E11">
-        <v>40.11660796121664</v>
+        <v>38.69273816768084</v>
       </c>
       <c r="F11">
-        <v>38.18259751569491</v>
+        <v>21.63649953818625</v>
       </c>
       <c r="G11">
-        <v>1.993181057682185</v>
+        <v>2.052989262951713</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.37715826877679</v>
+        <v>15.72823332675936</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.915279791016291</v>
+        <v>10.5621978410268</v>
       </c>
       <c r="O11">
-        <v>28.67645262248675</v>
+        <v>16.06692539776805</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.37695722277044</v>
+        <v>18.22029711622281</v>
       </c>
       <c r="C12">
-        <v>21.56769386924729</v>
+        <v>9.954988306051927</v>
       </c>
       <c r="D12">
-        <v>2.308323150772691</v>
+        <v>5.030436000200387</v>
       </c>
       <c r="E12">
-        <v>40.74540834170718</v>
+        <v>39.24775531245017</v>
       </c>
       <c r="F12">
-        <v>38.73233562249673</v>
+        <v>21.81931649939287</v>
       </c>
       <c r="G12">
-        <v>1.989880841707556</v>
+        <v>2.051479063950592</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.7458792234442</v>
+        <v>15.91432023390636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.829085669826009</v>
+        <v>10.4966386310581</v>
       </c>
       <c r="O12">
-        <v>29.09940524056964</v>
+        <v>16.14984348634036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.28571307307372</v>
+        <v>18.17118699225267</v>
       </c>
       <c r="C13">
-        <v>21.50352364238605</v>
+        <v>9.932544448086492</v>
       </c>
       <c r="D13">
-        <v>2.316913174064701</v>
+        <v>5.023313310324673</v>
       </c>
       <c r="E13">
-        <v>40.61010436513538</v>
+        <v>39.12854566902715</v>
       </c>
       <c r="F13">
-        <v>38.61400487499378</v>
+        <v>21.77987466851862</v>
       </c>
       <c r="G13">
-        <v>1.990592271821278</v>
+        <v>2.051803985440249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.66667461980118</v>
+        <v>15.87439675853871</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.847645298670725</v>
+        <v>10.51075367485166</v>
       </c>
       <c r="O13">
-        <v>29.008355012877</v>
+        <v>16.13186395734136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.9872148933735</v>
+        <v>18.01025814088692</v>
       </c>
       <c r="C14">
-        <v>21.29366046459834</v>
+        <v>9.859063738494743</v>
       </c>
       <c r="D14">
-        <v>2.344860233351981</v>
+        <v>4.999998568776273</v>
       </c>
       <c r="E14">
-        <v>40.1683958440481</v>
+        <v>38.73854617406992</v>
       </c>
       <c r="F14">
-        <v>38.2278552687815</v>
+        <v>21.65150888888275</v>
       </c>
       <c r="G14">
-        <v>1.992909836265756</v>
+        <v>2.05286486868469</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.40758670656882</v>
+        <v>15.74361212268085</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.908186764356513</v>
+        <v>10.55680221855773</v>
       </c>
       <c r="O14">
-        <v>28.71126821283153</v>
+        <v>16.07369243616596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.80365103731508</v>
+        <v>17.91109139811427</v>
       </c>
       <c r="C15">
-        <v>21.16465208238816</v>
+        <v>9.813834350281043</v>
       </c>
       <c r="D15">
-        <v>2.361928545525944</v>
+        <v>4.985651777356236</v>
       </c>
       <c r="E15">
-        <v>39.89746037934155</v>
+        <v>38.49870491422557</v>
       </c>
       <c r="F15">
-        <v>37.99112390361631</v>
+        <v>21.57308357303325</v>
       </c>
       <c r="G15">
-        <v>1.994327595095097</v>
+        <v>2.05351567064357</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.24827646816209</v>
+        <v>15.66305200790116</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.945282093798326</v>
+        <v>10.58502190137898</v>
       </c>
       <c r="O15">
-        <v>28.5291656574719</v>
+        <v>16.03841535766097</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.74022878944071</v>
+        <v>17.33365683200719</v>
       </c>
       <c r="C16">
-        <v>20.41798736352045</v>
+        <v>9.551257487466575</v>
       </c>
       <c r="D16">
-        <v>2.459027817962364</v>
+        <v>4.902440630262329</v>
       </c>
       <c r="E16">
-        <v>38.33796510408455</v>
+        <v>37.10925131012836</v>
       </c>
       <c r="F16">
-        <v>36.66869040544717</v>
+        <v>21.1267931147892</v>
       </c>
       <c r="G16">
-        <v>2.002430408961819</v>
+        <v>2.057261172215694</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.32562329743517</v>
+        <v>15.19445324537161</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.15807813018545</v>
+        <v>10.74698970347778</v>
       </c>
       <c r="O16">
-        <v>27.63142824560362</v>
+        <v>15.84162649553594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.07721085944174</v>
+        <v>16.97119308757608</v>
       </c>
       <c r="C17">
-        <v>19.95304770200796</v>
+        <v>9.387147637563173</v>
       </c>
       <c r="D17">
-        <v>2.518019727840562</v>
+        <v>4.85052031264126</v>
       </c>
       <c r="E17">
-        <v>37.37400898972714</v>
+        <v>36.24306814558562</v>
       </c>
       <c r="F17">
-        <v>35.90902093778448</v>
+        <v>20.85584332475248</v>
       </c>
       <c r="G17">
-        <v>2.007387956352538</v>
+        <v>2.059574252158302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.75059265029848</v>
+        <v>14.90075666159547</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.28885558003817</v>
+        <v>10.84662236496093</v>
       </c>
       <c r="O17">
-        <v>27.09953584784481</v>
+        <v>15.72562250096898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.69180398228187</v>
+        <v>16.75966668565697</v>
       </c>
       <c r="C18">
-        <v>19.68298146331684</v>
+        <v>9.291641972669414</v>
       </c>
       <c r="D18">
-        <v>2.551762692473523</v>
+        <v>4.820342582944407</v>
       </c>
       <c r="E18">
-        <v>36.81648543975056</v>
+        <v>35.73964090033502</v>
       </c>
       <c r="F18">
-        <v>35.47206800368896</v>
+        <v>20.70105969258605</v>
       </c>
       <c r="G18">
-        <v>2.010236827409734</v>
+        <v>2.060910709180408</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.41640812543028</v>
+        <v>14.7295302452637</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.36417765291713</v>
+        <v>10.90404534537683</v>
       </c>
       <c r="O18">
-        <v>26.79465151606935</v>
+        <v>15.66060581545276</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.56060208748542</v>
+        <v>16.68752200095792</v>
       </c>
       <c r="C19">
-        <v>19.59107707866155</v>
+        <v>9.259114031325897</v>
       </c>
       <c r="D19">
-        <v>2.563157492466985</v>
+        <v>4.810071515910776</v>
       </c>
       <c r="E19">
-        <v>36.62715152402468</v>
+        <v>35.56827850400547</v>
       </c>
       <c r="F19">
-        <v>35.32411019081606</v>
+        <v>20.64883645607705</v>
       </c>
       <c r="G19">
-        <v>2.011201168008556</v>
+        <v>2.061364283543579</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.30265616351725</v>
+        <v>14.67115991157009</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.38969958578894</v>
+        <v>10.92350945670883</v>
       </c>
       <c r="O19">
-        <v>26.69159405988393</v>
+        <v>15.63888250076114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.14820693808239</v>
+        <v>17.01009278590214</v>
       </c>
       <c r="C20">
-        <v>20.00281261512102</v>
+        <v>9.404732694057596</v>
       </c>
       <c r="D20">
-        <v>2.511759890019893</v>
+        <v>4.856080017433738</v>
       </c>
       <c r="E20">
-        <v>37.47693379228404</v>
+        <v>36.33581193289284</v>
       </c>
       <c r="F20">
-        <v>35.98988743396956</v>
+        <v>20.88457716886528</v>
       </c>
       <c r="G20">
-        <v>2.006860533346813</v>
+        <v>2.059327405051397</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.81215908153756</v>
+        <v>14.93225895137699</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.27492388221457</v>
+        <v>10.83600458170099</v>
       </c>
       <c r="O20">
-        <v>27.15604631586078</v>
+        <v>15.73779413549878</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.07504121725471</v>
+        <v>18.05765032046187</v>
       </c>
       <c r="C21">
-        <v>21.35539771445448</v>
+        <v>9.880692697286699</v>
       </c>
       <c r="D21">
-        <v>2.33666206952886</v>
+        <v>5.006860426391794</v>
       </c>
       <c r="E21">
-        <v>40.29821198683472</v>
+        <v>38.8532966376982</v>
       </c>
       <c r="F21">
-        <v>38.34131787538142</v>
+        <v>21.68917090888857</v>
       </c>
       <c r="G21">
-        <v>1.99222950498369</v>
+        <v>2.052553059686462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.48381368212481</v>
+        <v>15.78212059443841</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.890401861691013</v>
+        <v>10.54327391292127</v>
       </c>
       <c r="O21">
-        <v>28.79855544118768</v>
+        <v>16.09070475320473</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.30148359605534</v>
+        <v>18.71567585100716</v>
       </c>
       <c r="C22">
-        <v>22.21843295560796</v>
+        <v>10.18189279219186</v>
       </c>
       <c r="D22">
-        <v>2.220049975848848</v>
+        <v>5.102473856779993</v>
       </c>
       <c r="E22">
-        <v>42.12408930139834</v>
+        <v>40.45544748771635</v>
       </c>
       <c r="F22">
-        <v>39.93897601017</v>
+        <v>22.22412439456314</v>
       </c>
       <c r="G22">
-        <v>1.982592350594079</v>
+        <v>2.048170603582241</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.54861207569402</v>
+        <v>16.31734636942588</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.639672416922524</v>
+        <v>10.35261491333869</v>
       </c>
       <c r="O22">
-        <v>30.02818622661706</v>
+        <v>16.33714942767932</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.64974044147204</v>
+        <v>18.36688410628913</v>
       </c>
       <c r="C23">
-        <v>21.75959303277297</v>
+        <v>10.02203510184492</v>
       </c>
       <c r="D23">
-        <v>2.282511135880621</v>
+        <v>5.051717232945449</v>
       </c>
       <c r="E23">
-        <v>41.15071680718862</v>
+        <v>39.60412781298428</v>
       </c>
       <c r="F23">
-        <v>39.08691149240158</v>
+        <v>21.9377885583326</v>
       </c>
       <c r="G23">
-        <v>1.987745532230713</v>
+        <v>2.050505938010883</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.98268960633751</v>
+        <v>16.03352020987265</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.773453328910049</v>
+        <v>10.45433274853301</v>
       </c>
       <c r="O23">
-        <v>29.37226899029088</v>
+        <v>16.2041424220861</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.11612281746902</v>
+        <v>16.99251602190281</v>
       </c>
       <c r="C24">
-        <v>19.98032254098548</v>
+        <v>9.396786093300284</v>
       </c>
       <c r="D24">
-        <v>2.514590493752523</v>
+        <v>4.853567495213505</v>
       </c>
       <c r="E24">
-        <v>37.43041196491445</v>
+        <v>36.2938994683217</v>
       </c>
       <c r="F24">
-        <v>35.95332837396275</v>
+        <v>20.8715835132039</v>
       </c>
       <c r="G24">
-        <v>2.007098984766382</v>
+        <v>2.059438983863705</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.78433611586583</v>
+        <v>14.91802417069225</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.28122197426793</v>
+        <v>10.84080443250488</v>
       </c>
       <c r="O24">
-        <v>27.13049513078015</v>
+        <v>15.73228612729738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.22678800783029</v>
+        <v>15.3932952669403</v>
       </c>
       <c r="C25">
-        <v>17.95894041285614</v>
+        <v>8.679821596808917</v>
       </c>
       <c r="D25">
-        <v>2.758032217101474</v>
+        <v>4.627899272826516</v>
       </c>
       <c r="E25">
-        <v>33.29616969304041</v>
+        <v>32.52210988701959</v>
       </c>
       <c r="F25">
-        <v>32.76259901814107</v>
+        <v>19.76236454723243</v>
       </c>
       <c r="G25">
-        <v>2.027896273507046</v>
+        <v>2.069309592615073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.28028413336641</v>
+        <v>13.62678323917775</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.83308051532197</v>
+        <v>11.26232799325868</v>
       </c>
       <c r="O25">
-        <v>24.92312165207824</v>
+        <v>15.28813957052538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.11271701734132</v>
+        <v>12.93769803811917</v>
       </c>
       <c r="C2">
-        <v>8.115539399835351</v>
+        <v>9.546710724198485</v>
       </c>
       <c r="D2">
-        <v>4.452256684044865</v>
+        <v>4.937884348374827</v>
       </c>
       <c r="E2">
-        <v>29.55600248574026</v>
+        <v>29.55532887181108</v>
       </c>
       <c r="F2">
-        <v>18.98321601778879</v>
+        <v>15.9628816605936</v>
       </c>
       <c r="G2">
-        <v>2.076821944399847</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>19.01541858009543</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.154005696148056</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.955876606826918</v>
       </c>
       <c r="K2">
-        <v>12.59933317724417</v>
+        <v>12.08624584345665</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.24071720301361</v>
       </c>
       <c r="N2">
-        <v>11.57856048600477</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.01327909580958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.55970477175167</v>
+      </c>
+      <c r="Q2">
+        <v>12.63800594785753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.17936697744922</v>
+        <v>12.12673006890809</v>
       </c>
       <c r="C3">
-        <v>7.710858246126792</v>
+        <v>9.099918121138248</v>
       </c>
       <c r="D3">
-        <v>4.327766994263931</v>
+        <v>4.724332425223954</v>
       </c>
       <c r="E3">
-        <v>27.42093871815536</v>
+        <v>27.4440544633346</v>
       </c>
       <c r="F3">
-        <v>18.48010813196974</v>
+        <v>15.6173221841455</v>
       </c>
       <c r="G3">
-        <v>2.082084711312734</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>18.57880086622131</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.013080657097635</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.989666642497648</v>
       </c>
       <c r="K3">
-        <v>11.85500410993438</v>
+        <v>12.19247788211773</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.58261862987695</v>
       </c>
       <c r="N3">
-        <v>11.79736073422942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.8575602955229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.69910270909825</v>
+      </c>
+      <c r="Q3">
+        <v>12.59261753524703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57363652831851</v>
+        <v>11.59788838112184</v>
       </c>
       <c r="C4">
-        <v>7.451663334611856</v>
+        <v>8.81699344664966</v>
       </c>
       <c r="D4">
-        <v>4.248815970594794</v>
+        <v>4.587789709524516</v>
       </c>
       <c r="E4">
-        <v>26.04628021809168</v>
+        <v>26.08202573948281</v>
       </c>
       <c r="F4">
-        <v>18.18401420133955</v>
+        <v>15.41229075013385</v>
       </c>
       <c r="G4">
-        <v>2.085406387908309</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>18.32174395011211</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.924105174534653</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.014053633221144</v>
       </c>
       <c r="K4">
-        <v>11.37437495380564</v>
+        <v>12.26259487022149</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.15837499578029</v>
       </c>
       <c r="N4">
-        <v>11.93416518404992</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.77629679322803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.78686192526416</v>
+      </c>
+      <c r="Q4">
+        <v>12.57265067027302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31854179291523</v>
+        <v>11.36989752266141</v>
       </c>
       <c r="C5">
-        <v>7.343398253388933</v>
+        <v>8.706714186916512</v>
       </c>
       <c r="D5">
-        <v>4.2160400301249</v>
+        <v>4.532022412786602</v>
       </c>
       <c r="E5">
-        <v>25.46978135697914</v>
+        <v>25.51016144841727</v>
       </c>
       <c r="F5">
-        <v>18.06665282482492</v>
+        <v>15.32507558749228</v>
       </c>
       <c r="G5">
-        <v>2.086783488470343</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.20977605577077</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.887670489138314</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.023384183957187</v>
       </c>
       <c r="K5">
-        <v>11.17260771301448</v>
+        <v>12.28839992258186</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.98062896352117</v>
       </c>
       <c r="N5">
-        <v>11.99056648997814</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.74667496466459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.82328684980757</v>
+      </c>
+      <c r="Q5">
+        <v>12.5625062569016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.27568374759774</v>
+        <v>11.32580105798527</v>
       </c>
       <c r="C6">
-        <v>7.325263274540469</v>
+        <v>8.697005289734706</v>
       </c>
       <c r="D6">
-        <v>4.210562110019684</v>
+        <v>4.524150204966526</v>
       </c>
       <c r="E6">
-        <v>25.37306059987918</v>
+        <v>25.41410211401222</v>
       </c>
       <c r="F6">
-        <v>18.04736640457261</v>
+        <v>15.30394789002118</v>
       </c>
       <c r="G6">
-        <v>2.087013595678358</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.17907225909703</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.882326489672914</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.02315988446666</v>
       </c>
       <c r="K6">
-        <v>11.13874885249533</v>
+        <v>12.28792068609368</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.95097400204495</v>
       </c>
       <c r="N6">
-        <v>11.99997223445447</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.74196380633213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.82950692550056</v>
+      </c>
+      <c r="Q6">
+        <v>12.55613137391901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57022970959149</v>
+        <v>11.5794369519773</v>
       </c>
       <c r="C7">
-        <v>7.450213845183484</v>
+        <v>8.838997263091096</v>
       </c>
       <c r="D7">
-        <v>4.248376342803557</v>
+        <v>4.590998900947666</v>
       </c>
       <c r="E7">
-        <v>26.03857178304348</v>
+        <v>26.07415184539857</v>
       </c>
       <c r="F7">
-        <v>18.18241797061359</v>
+        <v>15.39277118828871</v>
       </c>
       <c r="G7">
-        <v>2.085424863857146</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.28690912710282</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.925327152037913</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.009189141915277</v>
       </c>
       <c r="K7">
-        <v>11.37167771586616</v>
+        <v>12.24971301523327</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.15642578156805</v>
       </c>
       <c r="N7">
-        <v>11.93492314714827</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.77588331350438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.78778035929045</v>
+      </c>
+      <c r="Q7">
+        <v>12.55940431774015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79764580119059</v>
+        <v>12.64558454217639</v>
       </c>
       <c r="C8">
-        <v>7.97825834370115</v>
+        <v>9.424000173425924</v>
       </c>
       <c r="D8">
-        <v>4.409871276600896</v>
+        <v>4.870410454520069</v>
       </c>
       <c r="E8">
-        <v>28.83287704136859</v>
+        <v>28.84052892225082</v>
       </c>
       <c r="F8">
-        <v>18.80713222497157</v>
+        <v>15.81866626593447</v>
       </c>
       <c r="G8">
-        <v>2.078618285548059</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>18.81974805611521</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.107744562881497</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.960161335599795</v>
       </c>
       <c r="K8">
-        <v>12.34760085970813</v>
+        <v>12.1042591540076</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.01857427703841</v>
       </c>
       <c r="N8">
-        <v>11.65351318545646</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.95654276045154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.60812465696795</v>
+      </c>
+      <c r="Q8">
+        <v>12.60345845954436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.94783854282011</v>
+        <v>14.5159913545565</v>
       </c>
       <c r="C9">
-        <v>8.9270166393314</v>
+        <v>10.46227770570538</v>
       </c>
       <c r="D9">
-        <v>4.705445364729964</v>
+        <v>5.367204892646452</v>
       </c>
       <c r="E9">
-        <v>33.82099721705494</v>
+        <v>33.75592912060829</v>
       </c>
       <c r="F9">
-        <v>20.13035730043946</v>
+        <v>16.73918501415318</v>
       </c>
       <c r="G9">
-        <v>2.065949339135268</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>20.00699888186785</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.444738273171619</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.90320822121961</v>
       </c>
       <c r="K9">
-        <v>14.07360801197457</v>
+        <v>11.88366204345078</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.54597632845255</v>
       </c>
       <c r="N9">
-        <v>11.11954304297628</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.42939927182361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.2714817571484</v>
+      </c>
+      <c r="Q9">
+        <v>12.77875434143409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37460530455159</v>
+        <v>15.7354990957848</v>
       </c>
       <c r="C10">
-        <v>9.569832679272686</v>
+        <v>11.19119119642386</v>
       </c>
       <c r="D10">
-        <v>4.908322017712814</v>
+        <v>5.705223421713952</v>
       </c>
       <c r="E10">
-        <v>37.20739203055184</v>
+        <v>37.07316932227275</v>
       </c>
       <c r="F10">
-        <v>21.15785259207582</v>
+        <v>17.43583840221728</v>
       </c>
       <c r="G10">
-        <v>2.056998022968577</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>20.9123103150354</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.682992336006239</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.879369406239412</v>
       </c>
       <c r="K10">
-        <v>15.22765523618833</v>
+        <v>11.74288509891394</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.5670072750919</v>
       </c>
       <c r="N10">
-        <v>10.73563552091995</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.8550965771559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.03440550242591</v>
+      </c>
+      <c r="Q10">
+        <v>12.94518025747105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.99132965692983</v>
+        <v>16.24003455992022</v>
       </c>
       <c r="C11">
-        <v>9.850427571917656</v>
+        <v>11.54360108648108</v>
       </c>
       <c r="D11">
-        <v>4.997258917146259</v>
+        <v>5.857790126855889</v>
       </c>
       <c r="E11">
-        <v>38.69273816768084</v>
+        <v>38.5219997237246</v>
       </c>
       <c r="F11">
-        <v>21.63649953818625</v>
+        <v>17.73238349555101</v>
       </c>
       <c r="G11">
-        <v>2.052989262951713</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.28752772804308</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.792621744586886</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.865340356692404</v>
       </c>
       <c r="K11">
-        <v>15.72823332675936</v>
+        <v>11.66359882945085</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.00983775695043</v>
       </c>
       <c r="N11">
-        <v>10.5621978410268</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.06692539776805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>10.93045952492357</v>
+      </c>
+      <c r="Q11">
+        <v>13.01090655838586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22029711622281</v>
+        <v>16.43670061667232</v>
       </c>
       <c r="C12">
-        <v>9.954988306051927</v>
+        <v>11.65892713513263</v>
       </c>
       <c r="D12">
-        <v>5.030436000200387</v>
+        <v>5.911728004944791</v>
       </c>
       <c r="E12">
-        <v>39.24775531245017</v>
+        <v>39.06266000417942</v>
       </c>
       <c r="F12">
-        <v>21.81931649939287</v>
+        <v>17.85945143718628</v>
       </c>
       <c r="G12">
-        <v>2.051479063950592</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.45624945041919</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.832224929357641</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.865082580387157</v>
       </c>
       <c r="K12">
-        <v>15.91432023390636</v>
+        <v>11.64630726331736</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.17402587440759</v>
       </c>
       <c r="N12">
-        <v>10.4966386310581</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.14984348634036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>10.89045248699149</v>
+      </c>
+      <c r="Q12">
+        <v>13.04826945319252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.17118699225267</v>
+        <v>16.39653258508401</v>
       </c>
       <c r="C13">
-        <v>9.932544448086492</v>
+        <v>11.63086127455311</v>
       </c>
       <c r="D13">
-        <v>5.023313310324673</v>
+        <v>5.899585138278415</v>
       </c>
       <c r="E13">
-        <v>39.12854566902715</v>
+        <v>38.94663027291795</v>
       </c>
       <c r="F13">
-        <v>21.77987466851862</v>
+        <v>17.8348290438155</v>
       </c>
       <c r="G13">
-        <v>2.051803985440249</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.42483862075501</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.823320464507471</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.865969800881264</v>
       </c>
       <c r="K13">
-        <v>15.87439675853871</v>
+        <v>11.65233859263893</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.13874768940172</v>
       </c>
       <c r="N13">
-        <v>10.51075367485166</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.13186395734136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>10.89885754231593</v>
+      </c>
+      <c r="Q13">
+        <v>13.0423317587533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.01025814088692</v>
+        <v>16.25715542235421</v>
       </c>
       <c r="C14">
-        <v>9.859063738494743</v>
+        <v>11.55171006512325</v>
       </c>
       <c r="D14">
-        <v>4.999998568776273</v>
+        <v>5.862003725445604</v>
       </c>
       <c r="E14">
-        <v>38.73854617406992</v>
+        <v>38.56666449856565</v>
       </c>
       <c r="F14">
-        <v>21.65150888888275</v>
+        <v>17.74400812236033</v>
       </c>
       <c r="G14">
-        <v>2.05286486868469</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.30351140140563</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.795714740691776</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.865671816004438</v>
       </c>
       <c r="K14">
-        <v>15.74361212268085</v>
+        <v>11.66315457055339</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.0233841912082</v>
       </c>
       <c r="N14">
-        <v>10.55680221855773</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.07369243616596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10.92707923057299</v>
+      </c>
+      <c r="Q14">
+        <v>13.01487671349156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.91109139811427</v>
+        <v>16.16722155931721</v>
       </c>
       <c r="C15">
-        <v>9.813834350281043</v>
+        <v>11.50961062041497</v>
       </c>
       <c r="D15">
-        <v>4.985651777356236</v>
+        <v>5.839992664176751</v>
       </c>
       <c r="E15">
-        <v>38.49870491422557</v>
+        <v>38.33276488448173</v>
       </c>
       <c r="F15">
-        <v>21.57308357303325</v>
+        <v>17.6829513905564</v>
       </c>
       <c r="G15">
-        <v>2.05351567064357</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.21944520252027</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.779617620575507</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.863881923529949</v>
       </c>
       <c r="K15">
-        <v>15.66305200790116</v>
+        <v>11.6652883276367</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.95242350716796</v>
       </c>
       <c r="N15">
-        <v>10.58502190137898</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.03841535766097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>10.94478360955262</v>
+      </c>
+      <c r="Q15">
+        <v>12.99395435446657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.33365683200719</v>
+        <v>15.66769157459929</v>
       </c>
       <c r="C16">
-        <v>9.551257487466575</v>
+        <v>11.22421355622366</v>
       </c>
       <c r="D16">
-        <v>4.902440630262329</v>
+        <v>5.704814845228123</v>
       </c>
       <c r="E16">
-        <v>37.10925131012836</v>
+        <v>36.9764919279439</v>
       </c>
       <c r="F16">
-        <v>21.1267931147892</v>
+        <v>17.36942686788607</v>
       </c>
       <c r="G16">
-        <v>2.057261172215694</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>20.80310686437516</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.68185999394374</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.865996303734465</v>
       </c>
       <c r="K16">
-        <v>15.19445324537161</v>
+        <v>11.70922003964476</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.53864457437566</v>
       </c>
       <c r="N16">
-        <v>10.74698970347778</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.84162649553594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.04429221389067</v>
+      </c>
+      <c r="Q16">
+        <v>12.90456906846846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97119308757608</v>
+        <v>15.35306443413799</v>
       </c>
       <c r="C17">
-        <v>9.387147637563173</v>
+        <v>11.04665584163241</v>
       </c>
       <c r="D17">
-        <v>4.85052031264126</v>
+        <v>5.620209365875126</v>
       </c>
       <c r="E17">
-        <v>36.24306814558562</v>
+        <v>36.12942093556469</v>
       </c>
       <c r="F17">
-        <v>20.85584332475248</v>
+        <v>17.17850335004156</v>
       </c>
       <c r="G17">
-        <v>2.059574252158302</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>20.55024245200974</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.621564179210558</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.868639084730307</v>
       </c>
       <c r="K17">
-        <v>14.90075666159547</v>
+        <v>11.738149193052</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.27911369755296</v>
       </c>
       <c r="N17">
-        <v>10.84662236496093</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.72562250096898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.10580369564154</v>
+      </c>
+      <c r="Q17">
+        <v>12.85255380248574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.75966668565697</v>
+        <v>15.1797456335759</v>
       </c>
       <c r="C18">
-        <v>9.291641972669414</v>
+        <v>10.92614019076697</v>
       </c>
       <c r="D18">
-        <v>4.820342582944407</v>
+        <v>5.567936451496397</v>
       </c>
       <c r="E18">
-        <v>35.73964090033502</v>
+        <v>35.63680729771506</v>
       </c>
       <c r="F18">
-        <v>20.70105969258605</v>
+        <v>17.08375831753959</v>
       </c>
       <c r="G18">
-        <v>2.060910709180408</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>20.43195977499839</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.584128911049028</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.875002155022548</v>
       </c>
       <c r="K18">
-        <v>14.7295302452637</v>
+        <v>11.76724585874709</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.12742895800025</v>
       </c>
       <c r="N18">
-        <v>10.90404534537683</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.66060581545276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.14047763515145</v>
+      </c>
+      <c r="Q18">
+        <v>12.83479038860234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.68752200095792</v>
+        <v>15.11233756704715</v>
       </c>
       <c r="C19">
-        <v>9.259114031325897</v>
+        <v>10.89863320389319</v>
       </c>
       <c r="D19">
-        <v>4.810071515910776</v>
+        <v>5.552442509818129</v>
       </c>
       <c r="E19">
-        <v>35.56827850400547</v>
+        <v>35.46885130669997</v>
       </c>
       <c r="F19">
-        <v>20.64883645607705</v>
+        <v>17.04058501585215</v>
       </c>
       <c r="G19">
-        <v>2.061364283543579</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>20.37190070948584</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.573387771622254</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.873873914110837</v>
       </c>
       <c r="K19">
-        <v>14.67115991157009</v>
+        <v>11.76814644790343</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.07595925414586</v>
       </c>
       <c r="N19">
-        <v>10.92350945670883</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.63888250076114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.15292932187963</v>
+      </c>
+      <c r="Q19">
+        <v>12.82036224960004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01009278590214</v>
+        <v>15.3876959998624</v>
       </c>
       <c r="C20">
-        <v>9.404732694057596</v>
+        <v>11.06429214172432</v>
       </c>
       <c r="D20">
-        <v>4.856080017433738</v>
+        <v>5.629045742565867</v>
       </c>
       <c r="E20">
-        <v>36.33581193289284</v>
+        <v>36.22019352396207</v>
       </c>
       <c r="F20">
-        <v>20.88457716886528</v>
+        <v>17.19990416908704</v>
       </c>
       <c r="G20">
-        <v>2.059327405051397</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>20.57910226532632</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.62778475586611</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.868649795321926</v>
       </c>
       <c r="K20">
-        <v>14.93225895137699</v>
+        <v>11.73591936406478</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.30693257677066</v>
       </c>
       <c r="N20">
-        <v>10.83600458170099</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.73779413549878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.09916667030677</v>
+      </c>
+      <c r="Q20">
+        <v>12.85885697088729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.05765032046187</v>
+        <v>16.28704190277653</v>
       </c>
       <c r="C21">
-        <v>9.880692697286699</v>
+        <v>11.59351701396902</v>
       </c>
       <c r="D21">
-        <v>5.006860426391794</v>
+        <v>5.876267444454117</v>
       </c>
       <c r="E21">
-        <v>38.8532966376982</v>
+        <v>38.67820418183451</v>
       </c>
       <c r="F21">
-        <v>21.68917090888857</v>
+        <v>17.75506172055321</v>
       </c>
       <c r="G21">
-        <v>2.052553059686462</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.31107438310799</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.806240918530569</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.860883272735661</v>
       </c>
       <c r="K21">
-        <v>15.78212059443841</v>
+        <v>11.64675166267668</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.05769191936742</v>
       </c>
       <c r="N21">
-        <v>10.54327391292127</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.09070475320473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>10.91989416890201</v>
+      </c>
+      <c r="Q21">
+        <v>13.01066225961415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.71567585100716</v>
+        <v>16.86235059652556</v>
       </c>
       <c r="C22">
-        <v>10.18189279219186</v>
+        <v>11.90781440887617</v>
       </c>
       <c r="D22">
-        <v>5.102473856779993</v>
+        <v>6.028228809419944</v>
       </c>
       <c r="E22">
-        <v>40.45544748771635</v>
+        <v>40.23727569009076</v>
       </c>
       <c r="F22">
-        <v>22.22412439456314</v>
+        <v>18.14204852753461</v>
       </c>
       <c r="G22">
-        <v>2.048170603582241</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>21.83308573866801</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.91869608223067</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.866542515414579</v>
       </c>
       <c r="K22">
-        <v>16.31734636942588</v>
+        <v>11.61200410142849</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.52929771148235</v>
       </c>
       <c r="N22">
-        <v>10.35261491333869</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.33714942767932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>10.80279366483555</v>
+      </c>
+      <c r="Q22">
+        <v>13.13487020498251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36688410628913</v>
+        <v>16.57106978311227</v>
       </c>
       <c r="C23">
-        <v>10.02203510184492</v>
+        <v>11.71866929042169</v>
       </c>
       <c r="D23">
-        <v>5.051717232945449</v>
+        <v>5.943807726770357</v>
       </c>
       <c r="E23">
-        <v>39.60412781298428</v>
+        <v>39.40975963173216</v>
       </c>
       <c r="F23">
-        <v>21.9377885583326</v>
+        <v>17.95381962874967</v>
       </c>
       <c r="G23">
-        <v>2.050505938010883</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.58732865981056</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.856202264308071</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.86893924483468</v>
       </c>
       <c r="K23">
-        <v>16.03352020987265</v>
+        <v>11.64583189350723</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.27889722963511</v>
       </c>
       <c r="N23">
-        <v>10.45433274853301</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.2041424220861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>10.86380248884727</v>
+      </c>
+      <c r="Q23">
+        <v>13.08240047693886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99251602190281</v>
+        <v>15.39436433813919</v>
       </c>
       <c r="C24">
-        <v>9.396786093300284</v>
+        <v>11.01970334251878</v>
       </c>
       <c r="D24">
-        <v>4.853567495213505</v>
+        <v>5.61875804428946</v>
       </c>
       <c r="E24">
-        <v>36.2938994683217</v>
+        <v>36.17968953609061</v>
       </c>
       <c r="F24">
-        <v>20.8715835132039</v>
+        <v>17.22076765217209</v>
       </c>
       <c r="G24">
-        <v>2.059438983863705</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>20.62109840641276</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.620252430347262</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.877872421534245</v>
       </c>
       <c r="K24">
-        <v>14.91802417069225</v>
+        <v>11.76185082997221</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.29369267398349</v>
       </c>
       <c r="N24">
-        <v>10.84080443250488</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.73228612729738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.10027043676592</v>
+      </c>
+      <c r="Q24">
+        <v>12.8795173109275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.3932952669403</v>
+        <v>14.01274178868019</v>
       </c>
       <c r="C25">
-        <v>8.679821596808917</v>
+        <v>10.22672692059431</v>
       </c>
       <c r="D25">
-        <v>4.627899272826516</v>
+        <v>5.244193693959922</v>
       </c>
       <c r="E25">
-        <v>32.52210988701959</v>
+        <v>32.478626051387</v>
       </c>
       <c r="F25">
-        <v>19.76236454723243</v>
+        <v>16.45390616645173</v>
       </c>
       <c r="G25">
-        <v>2.069309592615073</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>19.62114866227796</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.35875068155824</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.906181372414887</v>
       </c>
       <c r="K25">
-        <v>13.62678323917775</v>
+        <v>11.91453897523279</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.15115249090244</v>
       </c>
       <c r="N25">
-        <v>11.26232799325868</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.28813957052538</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.36230520266182</v>
+      </c>
+      <c r="Q25">
+        <v>12.70068184657674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93769803811917</v>
+        <v>12.75826314968717</v>
       </c>
       <c r="C2">
-        <v>9.546710724198485</v>
+        <v>9.712822240641247</v>
       </c>
       <c r="D2">
-        <v>4.937884348374827</v>
+        <v>4.99647131208854</v>
       </c>
       <c r="E2">
-        <v>29.55532887181108</v>
+        <v>29.5473144403049</v>
       </c>
       <c r="F2">
-        <v>15.9628816605936</v>
+        <v>15.73723599320473</v>
       </c>
       <c r="G2">
-        <v>19.01541858009543</v>
+        <v>17.88861578492254</v>
       </c>
       <c r="I2">
-        <v>3.154005696148056</v>
+        <v>3.155559489522122</v>
       </c>
       <c r="J2">
-        <v>7.955876606826918</v>
+        <v>8.494391689119821</v>
       </c>
       <c r="K2">
-        <v>12.08624584345665</v>
+        <v>11.8694271979789</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.92448483465765</v>
       </c>
       <c r="M2">
-        <v>12.24071720301361</v>
+        <v>6.664197737549693</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.22544800060645</v>
       </c>
       <c r="P2">
-        <v>11.55970477175167</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.63800594785753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.56638411386375</v>
+      </c>
+      <c r="S2">
+        <v>12.4830259272422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.12673006890809</v>
+        <v>11.99407684269099</v>
       </c>
       <c r="C3">
-        <v>9.099918121138248</v>
+        <v>9.181148449283821</v>
       </c>
       <c r="D3">
-        <v>4.724332425223954</v>
+        <v>4.768210919355557</v>
       </c>
       <c r="E3">
-        <v>27.4440544633346</v>
+        <v>27.44016874735991</v>
       </c>
       <c r="F3">
-        <v>15.6173221841455</v>
+        <v>15.43045401783296</v>
       </c>
       <c r="G3">
-        <v>18.57880086622131</v>
+        <v>17.50903456338008</v>
       </c>
       <c r="I3">
-        <v>3.013080657097635</v>
+        <v>3.029674825155561</v>
       </c>
       <c r="J3">
-        <v>7.989666642497648</v>
+        <v>8.505953662587382</v>
       </c>
       <c r="K3">
-        <v>12.19247788211773</v>
+        <v>11.99104168612667</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.09473223173942</v>
       </c>
       <c r="M3">
-        <v>11.58261862987695</v>
+        <v>6.681294531060643</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.57016932063356</v>
       </c>
       <c r="P3">
-        <v>11.69910270909825</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.59261753524703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.69082346609973</v>
+      </c>
+      <c r="S3">
+        <v>12.4614116412988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.59788838112184</v>
+        <v>11.49573318146726</v>
       </c>
       <c r="C4">
-        <v>8.81699344664966</v>
+        <v>8.843635809995527</v>
       </c>
       <c r="D4">
-        <v>4.587789709524516</v>
+        <v>4.622221935779196</v>
       </c>
       <c r="E4">
-        <v>26.08202573948281</v>
+        <v>26.0804163938021</v>
       </c>
       <c r="F4">
-        <v>15.41229075013385</v>
+        <v>15.24817704589214</v>
       </c>
       <c r="G4">
-        <v>18.32174395011211</v>
+        <v>17.28896444505842</v>
       </c>
       <c r="I4">
-        <v>2.924105174534653</v>
+        <v>2.950308693614358</v>
       </c>
       <c r="J4">
-        <v>8.014053633221144</v>
+        <v>8.514670679810616</v>
       </c>
       <c r="K4">
-        <v>12.26259487022149</v>
+        <v>12.06918281711724</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.2024667099365</v>
       </c>
       <c r="M4">
-        <v>11.15837499578029</v>
+        <v>6.715531353874275</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.14772520594407</v>
       </c>
       <c r="P4">
-        <v>11.78686192526416</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.57265067027302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.76960010464966</v>
+      </c>
+      <c r="S4">
+        <v>12.45474749924625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.36989752266141</v>
+        <v>11.28062552455496</v>
       </c>
       <c r="C5">
-        <v>8.706714186916512</v>
+        <v>8.710961254490805</v>
       </c>
       <c r="D5">
-        <v>4.532022412786602</v>
+        <v>4.56252115110246</v>
       </c>
       <c r="E5">
-        <v>25.51016144841727</v>
+        <v>25.50942374694204</v>
       </c>
       <c r="F5">
-        <v>15.32507558749228</v>
+        <v>15.16992945759824</v>
       </c>
       <c r="G5">
-        <v>18.20977605577077</v>
+        <v>17.19220375377332</v>
       </c>
       <c r="I5">
-        <v>2.887670489138314</v>
+        <v>2.918136635231687</v>
       </c>
       <c r="J5">
-        <v>8.023384183957187</v>
+        <v>8.51714402115333</v>
       </c>
       <c r="K5">
-        <v>12.28839992258186</v>
+        <v>12.09799977148476</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.24352369095771</v>
       </c>
       <c r="M5">
-        <v>10.98062896352117</v>
+        <v>6.733276482219545</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.97074232988748</v>
       </c>
       <c r="P5">
-        <v>11.82328684980757</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.5625062569016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.80245419947381</v>
+      </c>
+      <c r="S5">
+        <v>12.44971226106754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.32580105798527</v>
+        <v>11.23869669833764</v>
       </c>
       <c r="C6">
-        <v>8.697005289734706</v>
+        <v>8.69803887602651</v>
       </c>
       <c r="D6">
-        <v>4.524150204966526</v>
+        <v>4.554008253749771</v>
       </c>
       <c r="E6">
-        <v>25.41410211401222</v>
+        <v>25.41350840567758</v>
       </c>
       <c r="F6">
-        <v>15.30394789002118</v>
+        <v>15.15025671869853</v>
       </c>
       <c r="G6">
-        <v>18.17907225909703</v>
+        <v>17.16369499651706</v>
       </c>
       <c r="I6">
-        <v>2.882326489672914</v>
+        <v>2.913850356326798</v>
       </c>
       <c r="J6">
-        <v>8.02315988446666</v>
+        <v>8.515772389885248</v>
       </c>
       <c r="K6">
-        <v>12.28792068609368</v>
+        <v>12.09810500748021</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.24592762965584</v>
       </c>
       <c r="M6">
-        <v>10.95097400204495</v>
+        <v>6.734035001596453</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.94122513969315</v>
       </c>
       <c r="P6">
-        <v>11.82950692550056</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.55613137391901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.80813833692092</v>
+      </c>
+      <c r="S6">
+        <v>12.44418150054617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.5794369519773</v>
+        <v>11.47487222351698</v>
       </c>
       <c r="C7">
-        <v>8.838997263091096</v>
+        <v>8.861267203818754</v>
       </c>
       <c r="D7">
-        <v>4.590998900947666</v>
+        <v>4.628100041870773</v>
       </c>
       <c r="E7">
-        <v>26.07415184539857</v>
+        <v>26.07237763058356</v>
       </c>
       <c r="F7">
-        <v>15.39277118828871</v>
+        <v>15.21705481366542</v>
       </c>
       <c r="G7">
-        <v>18.28690912710282</v>
+        <v>17.34672062110977</v>
       </c>
       <c r="I7">
-        <v>2.925327152037913</v>
+        <v>2.952020696909358</v>
       </c>
       <c r="J7">
-        <v>8.009189141915277</v>
+        <v>8.475169894629838</v>
       </c>
       <c r="K7">
-        <v>12.24971301523327</v>
+        <v>12.05231219470335</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.18713747237335</v>
       </c>
       <c r="M7">
-        <v>11.15642578156805</v>
+        <v>6.705809444048786</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.14222678057986</v>
       </c>
       <c r="P7">
-        <v>11.78778035929045</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.55940431774015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.77098935223817</v>
+      </c>
+      <c r="S7">
+        <v>12.43342966066572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.64558454217639</v>
+        <v>12.47395509085876</v>
       </c>
       <c r="C8">
-        <v>9.424000173425924</v>
+        <v>9.545846999907354</v>
       </c>
       <c r="D8">
-        <v>4.870410454520069</v>
+        <v>4.932556803734466</v>
       </c>
       <c r="E8">
-        <v>28.84052892225082</v>
+        <v>28.83337073386253</v>
       </c>
       <c r="F8">
-        <v>15.81866626593447</v>
+        <v>15.56867416675796</v>
       </c>
       <c r="G8">
-        <v>18.81974805611521</v>
+        <v>18.01430171534464</v>
       </c>
       <c r="I8">
-        <v>3.107744562881497</v>
+        <v>3.114113267643363</v>
       </c>
       <c r="J8">
-        <v>7.960161335599795</v>
+        <v>8.378353449318432</v>
       </c>
       <c r="K8">
-        <v>12.1042591540076</v>
+        <v>11.87926626392727</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.95632557170094</v>
       </c>
       <c r="M8">
-        <v>12.01857427703841</v>
+        <v>6.642907087200054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.99313278082084</v>
       </c>
       <c r="P8">
-        <v>11.60812465696795</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.60345845954436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.61137031901929</v>
+      </c>
+      <c r="S8">
+        <v>12.4299956624237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5159913545565</v>
+        <v>14.23605550977829</v>
       </c>
       <c r="C9">
-        <v>10.46227770570538</v>
+        <v>10.77686411688847</v>
       </c>
       <c r="D9">
-        <v>5.367204892646452</v>
+        <v>5.465020879752249</v>
       </c>
       <c r="E9">
-        <v>33.75592912060829</v>
+        <v>33.73643357218566</v>
       </c>
       <c r="F9">
-        <v>16.73918501415318</v>
+        <v>16.37960610273077</v>
       </c>
       <c r="G9">
-        <v>20.00699888186785</v>
+        <v>19.1367281566206</v>
       </c>
       <c r="I9">
-        <v>3.444738273171619</v>
+        <v>3.414369723474891</v>
       </c>
       <c r="J9">
-        <v>7.90320822121961</v>
+        <v>8.333214541883383</v>
       </c>
       <c r="K9">
-        <v>11.88366204345078</v>
+        <v>11.60738304665269</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.56187604688694</v>
       </c>
       <c r="M9">
-        <v>13.54597632845255</v>
+        <v>6.736671934838427</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.51197583805433</v>
       </c>
       <c r="P9">
-        <v>11.2714817571484</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.77875434143409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.31422894538803</v>
+      </c>
+      <c r="S9">
+        <v>12.53166637986176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.7354990957848</v>
+        <v>15.37230235570526</v>
       </c>
       <c r="C10">
-        <v>11.19119119642386</v>
+        <v>11.60857245354088</v>
       </c>
       <c r="D10">
-        <v>5.705223421713952</v>
+        <v>5.840029851817185</v>
       </c>
       <c r="E10">
-        <v>37.07316932227275</v>
+        <v>37.04130508079659</v>
       </c>
       <c r="F10">
-        <v>17.43583840221728</v>
+        <v>16.93185155980806</v>
       </c>
       <c r="G10">
-        <v>20.9123103150354</v>
+        <v>20.49091363719483</v>
       </c>
       <c r="I10">
-        <v>3.682992336006239</v>
+        <v>3.625721008661808</v>
       </c>
       <c r="J10">
-        <v>7.879369406239412</v>
+        <v>8.114901334901175</v>
       </c>
       <c r="K10">
-        <v>11.74288509891394</v>
+        <v>11.39555237065027</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.26660662428196</v>
       </c>
       <c r="M10">
-        <v>14.5670072750919</v>
+        <v>6.891012401145796</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.51012006278002</v>
       </c>
       <c r="P10">
-        <v>11.03440550242591</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.94518025747105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.11187897579674</v>
+      </c>
+      <c r="S10">
+        <v>12.59138123401775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.24003455992022</v>
+        <v>15.8210292733509</v>
       </c>
       <c r="C11">
-        <v>11.54360108648108</v>
+        <v>11.96227728794408</v>
       </c>
       <c r="D11">
-        <v>5.857790126855889</v>
+        <v>6.031438235083842</v>
       </c>
       <c r="E11">
-        <v>38.5219997237246</v>
+        <v>38.48172078539331</v>
       </c>
       <c r="F11">
-        <v>17.73238349555101</v>
+        <v>17.05611854096438</v>
       </c>
       <c r="G11">
-        <v>21.28752772804308</v>
+        <v>21.91267854572056</v>
       </c>
       <c r="I11">
-        <v>3.792621744586886</v>
+        <v>3.721760952569688</v>
       </c>
       <c r="J11">
-        <v>7.865340356692404</v>
+        <v>7.703843084027463</v>
       </c>
       <c r="K11">
-        <v>11.66359882945085</v>
+        <v>11.2384546486097</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.09723289316241</v>
       </c>
       <c r="M11">
-        <v>15.00983775695043</v>
+        <v>6.920036450601612</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.91447311001058</v>
       </c>
       <c r="P11">
-        <v>10.93045952492357</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.01090655838586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.0326593182887</v>
+      </c>
+      <c r="S11">
+        <v>12.52544540963841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.43670061667232</v>
+        <v>15.99461262216118</v>
       </c>
       <c r="C12">
-        <v>11.65892713513263</v>
+        <v>12.07189827733907</v>
       </c>
       <c r="D12">
-        <v>5.911728004944791</v>
+        <v>6.102612368281346</v>
       </c>
       <c r="E12">
-        <v>39.06266000417942</v>
+        <v>39.0188176729682</v>
       </c>
       <c r="F12">
-        <v>17.85945143718628</v>
+        <v>17.10496694952291</v>
       </c>
       <c r="G12">
-        <v>21.45624945041919</v>
+        <v>22.57946211875237</v>
       </c>
       <c r="I12">
-        <v>3.832224929357641</v>
+        <v>3.755143725288804</v>
       </c>
       <c r="J12">
-        <v>7.865082580387157</v>
+        <v>7.527227561613373</v>
       </c>
       <c r="K12">
-        <v>11.64630726331736</v>
+        <v>11.18471307731623</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.03769567123981</v>
       </c>
       <c r="M12">
-        <v>15.17402587440759</v>
+        <v>6.938437748829976</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.06089863937533</v>
       </c>
       <c r="P12">
-        <v>10.89045248699149</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.04826945319252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.00300301377517</v>
+      </c>
+      <c r="S12">
+        <v>12.50209504322478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.39653258508401</v>
+        <v>15.95950563141926</v>
       </c>
       <c r="C13">
-        <v>11.63086127455311</v>
+        <v>12.04514203061182</v>
       </c>
       <c r="D13">
-        <v>5.899585138278415</v>
+        <v>6.08663367194726</v>
       </c>
       <c r="E13">
-        <v>38.94663027291795</v>
+        <v>38.90356875752678</v>
       </c>
       <c r="F13">
-        <v>17.8348290438155</v>
+        <v>17.09775923994471</v>
       </c>
       <c r="G13">
-        <v>21.42483862075501</v>
+        <v>22.4363860981747</v>
       </c>
       <c r="I13">
-        <v>3.823320464507471</v>
+        <v>3.747410201321637</v>
       </c>
       <c r="J13">
-        <v>7.865969800881264</v>
+        <v>7.566671561124659</v>
       </c>
       <c r="K13">
-        <v>11.65233859263893</v>
+        <v>11.19869283105098</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.05190427575534</v>
       </c>
       <c r="M13">
-        <v>15.13874768940172</v>
+        <v>6.936749461201773</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.02958150166524</v>
       </c>
       <c r="P13">
-        <v>10.89885754231593</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.0423317587533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.0090352190477</v>
+      </c>
+      <c r="S13">
+        <v>12.5096670416832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25715542235421</v>
+        <v>15.83629160575605</v>
       </c>
       <c r="C14">
-        <v>11.55171006512325</v>
+        <v>11.96995560759632</v>
       </c>
       <c r="D14">
-        <v>5.862003725445604</v>
+        <v>6.037014578677556</v>
       </c>
       <c r="E14">
-        <v>38.56666449856565</v>
+        <v>38.52609854449736</v>
       </c>
       <c r="F14">
-        <v>17.74400812236033</v>
+        <v>17.06156441378207</v>
       </c>
       <c r="G14">
-        <v>21.30351140140563</v>
+        <v>21.96765400879877</v>
       </c>
       <c r="I14">
-        <v>3.795714740691776</v>
+        <v>3.724269724702695</v>
       </c>
       <c r="J14">
-        <v>7.865671816004438</v>
+        <v>7.689976838728874</v>
       </c>
       <c r="K14">
-        <v>11.66315457055339</v>
+        <v>11.23506327590935</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.09293520737208</v>
       </c>
       <c r="M14">
-        <v>15.0233841912082</v>
+        <v>6.922516603679563</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.92661952224561</v>
       </c>
       <c r="P14">
-        <v>10.92707923057299</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.01487671349156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.03007014341175</v>
+      </c>
+      <c r="S14">
+        <v>12.52461765430361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16722155931721</v>
+        <v>15.75599696222598</v>
       </c>
       <c r="C15">
-        <v>11.50961062041497</v>
+        <v>11.92991546822388</v>
       </c>
       <c r="D15">
-        <v>5.839992664176751</v>
+        <v>6.007981506281848</v>
       </c>
       <c r="E15">
-        <v>38.33276488448173</v>
+        <v>38.29368529272845</v>
       </c>
       <c r="F15">
-        <v>17.6829513905564</v>
+        <v>17.03229321065318</v>
       </c>
       <c r="G15">
-        <v>21.21944520252027</v>
+        <v>21.68377356395551</v>
       </c>
       <c r="I15">
-        <v>3.779617620575507</v>
+        <v>3.711246139450997</v>
       </c>
       <c r="J15">
-        <v>7.863881923529949</v>
+        <v>7.761486588330458</v>
       </c>
       <c r="K15">
-        <v>11.6652883276367</v>
+        <v>11.25236247382193</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.11516415125155</v>
       </c>
       <c r="M15">
-        <v>14.95242350716796</v>
+        <v>6.90921727277524</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.86285285271636</v>
       </c>
       <c r="P15">
-        <v>10.94478360955262</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.99395435446657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.04369490212464</v>
+      </c>
+      <c r="S15">
+        <v>12.52835166361833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.66769157459929</v>
+        <v>15.30780451931102</v>
       </c>
       <c r="C16">
-        <v>11.22421355622366</v>
+        <v>11.64366732622352</v>
       </c>
       <c r="D16">
-        <v>5.704814845228123</v>
+        <v>5.837562945693932</v>
       </c>
       <c r="E16">
-        <v>36.9764919279439</v>
+        <v>36.94516677642029</v>
       </c>
       <c r="F16">
-        <v>17.36942686788607</v>
+        <v>16.87506211527518</v>
       </c>
       <c r="G16">
-        <v>20.80310686437516</v>
+        <v>20.32540657904048</v>
       </c>
       <c r="I16">
-        <v>3.68185999394374</v>
+        <v>3.628286886442124</v>
       </c>
       <c r="J16">
-        <v>7.865996303734465</v>
+        <v>8.125136338405433</v>
       </c>
       <c r="K16">
-        <v>11.70922003964476</v>
+        <v>11.36865206558226</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.2542543677271</v>
       </c>
       <c r="M16">
-        <v>14.53864457437566</v>
+        <v>6.854068702307145</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.48389342811015</v>
       </c>
       <c r="P16">
-        <v>11.04429221389067</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.90456906846846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.12135894818673</v>
+      </c>
+      <c r="S16">
+        <v>12.55857583346623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.35306443413799</v>
+        <v>15.02112066321126</v>
       </c>
       <c r="C17">
-        <v>11.04665584163241</v>
+        <v>11.45590665393248</v>
       </c>
       <c r="D17">
-        <v>5.620209365875126</v>
+        <v>5.735868110137894</v>
       </c>
       <c r="E17">
-        <v>36.12942093556469</v>
+        <v>36.10220857778007</v>
       </c>
       <c r="F17">
-        <v>17.17850335004156</v>
+        <v>16.75747739665019</v>
       </c>
       <c r="G17">
-        <v>20.55024245200974</v>
+        <v>19.67235851293034</v>
       </c>
       <c r="I17">
-        <v>3.621564179210558</v>
+        <v>3.576555347316503</v>
       </c>
       <c r="J17">
-        <v>7.868639084730307</v>
+        <v>8.289957424524692</v>
       </c>
       <c r="K17">
-        <v>11.738149193052</v>
+        <v>11.43148910033852</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.33521120000895</v>
       </c>
       <c r="M17">
-        <v>14.27911369755296</v>
+        <v>6.816215415194232</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.23999489671443</v>
       </c>
       <c r="P17">
-        <v>11.10580369564154</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.85255380248574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.17146782054366</v>
+      </c>
+      <c r="S17">
+        <v>12.56177508324222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.1797456335759</v>
+        <v>14.86257799198204</v>
       </c>
       <c r="C18">
-        <v>10.92614019076697</v>
+        <v>11.32497712982207</v>
       </c>
       <c r="D18">
-        <v>5.567936451496397</v>
+        <v>5.675382111743406</v>
       </c>
       <c r="E18">
-        <v>35.63680729771506</v>
+        <v>35.61171978534607</v>
       </c>
       <c r="F18">
-        <v>17.08375831753959</v>
+        <v>16.69677332822219</v>
       </c>
       <c r="G18">
-        <v>20.43195977499839</v>
+        <v>19.38860084406958</v>
       </c>
       <c r="I18">
-        <v>3.584128911049028</v>
+        <v>3.542807839891609</v>
       </c>
       <c r="J18">
-        <v>7.875002155022548</v>
+        <v>8.364877322735429</v>
       </c>
       <c r="K18">
-        <v>11.76724585874709</v>
+        <v>11.47576946520385</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.38742853634237</v>
       </c>
       <c r="M18">
-        <v>14.12742895800025</v>
+        <v>6.803581762077428</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.09516018695358</v>
       </c>
       <c r="P18">
-        <v>11.14047763515145</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.83479038860234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.19996275126246</v>
+      </c>
+      <c r="S18">
+        <v>12.56919858427654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11233756704715</v>
+        <v>14.79993255708003</v>
       </c>
       <c r="C19">
-        <v>10.89863320389319</v>
+        <v>11.2940536000326</v>
       </c>
       <c r="D19">
-        <v>5.552442509818129</v>
+        <v>5.657414413206084</v>
       </c>
       <c r="E19">
-        <v>35.46885130669997</v>
+        <v>35.44445373720062</v>
       </c>
       <c r="F19">
-        <v>17.04058501585215</v>
+        <v>16.66377590919371</v>
       </c>
       <c r="G19">
-        <v>20.37190070948584</v>
+        <v>19.28295124044647</v>
       </c>
       <c r="I19">
-        <v>3.573387771622254</v>
+        <v>3.534059293780043</v>
       </c>
       <c r="J19">
-        <v>7.873873914110837</v>
+        <v>8.382921719292673</v>
       </c>
       <c r="K19">
-        <v>11.76814644790343</v>
+        <v>11.48171971883599</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.39917295886495</v>
       </c>
       <c r="M19">
-        <v>14.07595925414586</v>
+        <v>6.791215487237044</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.04566206390365</v>
       </c>
       <c r="P19">
-        <v>11.15292932187963</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.82036224960004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.21063471752956</v>
+      </c>
+      <c r="S19">
+        <v>12.56234971192807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3876959998624</v>
+        <v>15.05291490319502</v>
       </c>
       <c r="C20">
-        <v>11.06429214172432</v>
+        <v>11.4749283741263</v>
       </c>
       <c r="D20">
-        <v>5.629045742565867</v>
+        <v>5.74634988905629</v>
       </c>
       <c r="E20">
-        <v>36.22019352396207</v>
+        <v>36.19256640503554</v>
       </c>
       <c r="F20">
-        <v>17.19990416908704</v>
+        <v>16.77191192163337</v>
       </c>
       <c r="G20">
-        <v>20.57910226532632</v>
+        <v>19.73719449933866</v>
       </c>
       <c r="I20">
-        <v>3.62778475586611</v>
+        <v>3.581803064630369</v>
       </c>
       <c r="J20">
-        <v>7.868649795321926</v>
+        <v>8.275158855095475</v>
       </c>
       <c r="K20">
-        <v>11.73591936406478</v>
+        <v>11.42597736569714</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.32732991634599</v>
       </c>
       <c r="M20">
-        <v>14.30693257677066</v>
+        <v>6.821182391238553</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.26636714509309</v>
       </c>
       <c r="P20">
-        <v>11.09916667030677</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.85885697088729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.1659533371718</v>
+      </c>
+      <c r="S20">
+        <v>12.56285642483188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.28704190277653</v>
+        <v>15.85444434489826</v>
       </c>
       <c r="C21">
-        <v>11.59351701396902</v>
+        <v>11.99588876561429</v>
       </c>
       <c r="D21">
-        <v>5.876267444454117</v>
+        <v>6.062861393646519</v>
       </c>
       <c r="E21">
-        <v>38.67820418183451</v>
+        <v>38.6361910619226</v>
       </c>
       <c r="F21">
-        <v>17.75506172055321</v>
+        <v>17.01889913041643</v>
       </c>
       <c r="G21">
-        <v>21.31107438310799</v>
+        <v>22.37622458786904</v>
       </c>
       <c r="I21">
-        <v>3.806240918530569</v>
+        <v>3.733424552164301</v>
       </c>
       <c r="J21">
-        <v>7.860883272735661</v>
+        <v>7.551425757215063</v>
       </c>
       <c r="K21">
-        <v>11.64675166267668</v>
+        <v>11.19650546224566</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.06413435206649</v>
       </c>
       <c r="M21">
-        <v>15.05769191936742</v>
+        <v>6.899354403096586</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.9473323479097</v>
       </c>
       <c r="P21">
-        <v>10.91989416890201</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.01066225961415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.02810139669773</v>
+      </c>
+      <c r="S21">
+        <v>12.47933204633229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.86235059652556</v>
+        <v>16.36602932964037</v>
       </c>
       <c r="C22">
-        <v>11.90781440887617</v>
+        <v>12.29884059234793</v>
       </c>
       <c r="D22">
-        <v>6.028228809419944</v>
+        <v>6.2616469258823</v>
       </c>
       <c r="E22">
-        <v>40.23727569009076</v>
+        <v>40.18495739784606</v>
       </c>
       <c r="F22">
-        <v>18.14204852753461</v>
+        <v>17.19183521055416</v>
       </c>
       <c r="G22">
-        <v>21.83308573866801</v>
+        <v>24.23457163098557</v>
       </c>
       <c r="I22">
-        <v>3.91869608223067</v>
+        <v>3.827473726697027</v>
       </c>
       <c r="J22">
-        <v>7.866542515414579</v>
+        <v>7.118902295152211</v>
       </c>
       <c r="K22">
-        <v>11.61200410142849</v>
+        <v>11.05824898261299</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.903863822606153</v>
       </c>
       <c r="M22">
-        <v>15.52929771148235</v>
+        <v>6.974135929081648</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.37151663463826</v>
       </c>
       <c r="P22">
-        <v>10.80279366483555</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.13487020498251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>10.94070692337424</v>
+      </c>
+      <c r="S22">
+        <v>12.43515704824351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.57106978311227</v>
+        <v>16.11355346654195</v>
       </c>
       <c r="C23">
-        <v>11.71866929042169</v>
+        <v>12.12586972339988</v>
       </c>
       <c r="D23">
-        <v>5.943807726770357</v>
+        <v>6.146491067951102</v>
       </c>
       <c r="E23">
-        <v>39.40975963173216</v>
+        <v>39.36350485032862</v>
       </c>
       <c r="F23">
-        <v>17.95381962874967</v>
+        <v>17.14513544308586</v>
       </c>
       <c r="G23">
-        <v>21.58732865981056</v>
+        <v>23.0607958850251</v>
       </c>
       <c r="I23">
-        <v>3.856202264308071</v>
+        <v>3.774296164234705</v>
       </c>
       <c r="J23">
-        <v>7.86893924483468</v>
+        <v>7.411361983040686</v>
       </c>
       <c r="K23">
-        <v>11.64583189350723</v>
+        <v>11.15803307300395</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.00422318322945</v>
       </c>
       <c r="M23">
-        <v>15.27889722963511</v>
+        <v>6.958781296956058</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.15341872939751</v>
       </c>
       <c r="P23">
-        <v>10.86380248884727</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.08240047693886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>10.98305342722738</v>
+      </c>
+      <c r="S23">
+        <v>12.4937378518195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.39436433813919</v>
+        <v>15.06090880267122</v>
       </c>
       <c r="C24">
-        <v>11.01970334251878</v>
+        <v>11.42776361363301</v>
       </c>
       <c r="D24">
-        <v>5.61875804428946</v>
+        <v>5.735240700017822</v>
       </c>
       <c r="E24">
-        <v>36.17968953609061</v>
+        <v>36.15222598303933</v>
       </c>
       <c r="F24">
-        <v>17.22076765217209</v>
+        <v>16.7958737012255</v>
       </c>
       <c r="G24">
-        <v>20.62109840641276</v>
+        <v>19.76394578200824</v>
       </c>
       <c r="I24">
-        <v>3.620252430347262</v>
+        <v>3.572707910172745</v>
       </c>
       <c r="J24">
-        <v>7.877872421534245</v>
+        <v>8.290257805678504</v>
       </c>
       <c r="K24">
-        <v>11.76185082997221</v>
+        <v>11.45192776070797</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.34615740805061</v>
       </c>
       <c r="M24">
-        <v>14.29369267398349</v>
+        <v>6.840875206432691</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.25374204859201</v>
       </c>
       <c r="P24">
-        <v>11.10027043676592</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.8795173109275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.16594669816073</v>
+      </c>
+      <c r="S24">
+        <v>12.58553079098304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.01274178868019</v>
+        <v>13.76376319922312</v>
       </c>
       <c r="C25">
-        <v>10.22672692059431</v>
+        <v>10.50051250868304</v>
       </c>
       <c r="D25">
-        <v>5.244193693959922</v>
+        <v>5.329417993464772</v>
       </c>
       <c r="E25">
-        <v>32.478626051387</v>
+        <v>32.46309062258143</v>
       </c>
       <c r="F25">
-        <v>16.45390616645173</v>
+        <v>16.14027060937978</v>
       </c>
       <c r="G25">
-        <v>19.62114866227796</v>
+        <v>18.64027315632979</v>
       </c>
       <c r="I25">
-        <v>3.35875068155824</v>
+        <v>3.340212277370767</v>
       </c>
       <c r="J25">
-        <v>7.906181372414887</v>
+        <v>8.38359243428026</v>
       </c>
       <c r="K25">
-        <v>11.91453897523279</v>
+        <v>11.66090755419939</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.65381104398597</v>
       </c>
       <c r="M25">
-        <v>13.15115249090244</v>
+        <v>6.676429777765581</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.1239173000999</v>
       </c>
       <c r="P25">
-        <v>11.36230520266182</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.70068184657674</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.39382309167034</v>
+      </c>
+      <c r="S25">
+        <v>12.48642013434968</v>
       </c>
     </row>
   </sheetData>
